--- a/CashFlow/VEEV_cashflow.xlsx
+++ b/CashFlow/VEEV_cashflow.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>754000.0</v>
+        <v>75000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1141000.0</v>
+        <v>71000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-3601000.0</v>
+        <v>48318000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-1843000.0</v>
+        <v>34990000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1828000.0</v>
+        <v>19231000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>4892000.0</v>
